--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฬ(1).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฬ(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B80F6-6521-3C4C-B0AC-44DE824447DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{370B80F6-6521-3C4C-B0AC-44DE824447DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A17A464-3B28-4A9C-AE20-9A95CE19268F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="2190" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,17 @@
     <t>ฬ</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๔๒ เรียกว่า ฬอ จุฬา เป็นอักษรต่ำใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น ว่าวจุฬา ทมิฬ ปลาวาฬ.</t>
-  </si>
-  <si>
     <t>related_word</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๔๒ เรียกว่า ฬอ จุฬา เป็นอักษรต่ำใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น ว่าวจุฬา ทมิฬ ปลาวาฬ.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,11 +54,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -102,12 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -416,19 +420,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="27" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,18 +444,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="108" x14ac:dyDescent="0.6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
